--- a/Dados/area.xlsx
+++ b/Dados/area.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\3DSMB-11\Disciplinas\PWFE\proposta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42350249816\Desktop\ordemServico\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB04401-B2CD-4D4A-8393-A7CF1CDA4BA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9369D626-AC4A-497C-A457-E618A774C96A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{F853F5E7-9347-4218-9A11-C3DB6BCD71A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="7980" xr2:uid="{F853F5E7-9347-4218-9A11-C3DB6BCD71A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>area</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Zeladoria</t>
+  </si>
+  <si>
+    <t>Pintura</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668377A4-C4C0-4C8D-9AE6-CE9E4FFF0794}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +476,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/area.xlsx
+++ b/Dados/area.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42350249816\Desktop\ordemServico\Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\3DSMB-11\Disciplinas\PWFE\proposta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9369D626-AC4A-497C-A457-E618A774C96A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB04401-B2CD-4D4A-8393-A7CF1CDA4BA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="7980" xr2:uid="{F853F5E7-9347-4218-9A11-C3DB6BCD71A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{F853F5E7-9347-4218-9A11-C3DB6BCD71A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>area</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Zeladoria</t>
-  </si>
-  <si>
-    <t>Pintura</t>
   </si>
 </sst>
 </file>
@@ -425,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668377A4-C4C0-4C8D-9AE6-CE9E4FFF0794}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,11 +473,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
